--- a/biology/Zoologie/Agelena/Agelena.xlsx
+++ b/biology/Zoologie/Agelena/Agelena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agelena est un genre d'araignées aranéomorphes de la famille des Agelenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agelena est un genre d'araignées aranéomorphes de la famille des Agelenidae.
 Elles sont appelées agélènes.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, en Afrique et en Europe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, en Afrique et en Europe.
 Elles se développent dans les zones tempérées ou chaudes, et ont besoin d'une présence d'eau à proximité, pour boire. On ne les rencontre pas dans les habitations.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les agélènes sont de taille importante (environ 1,5 cm pour le corps) et aux pattes assez longues. Ce sont de proches parentes des tégénaires.
 </t>
@@ -575,7 +591,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Agelena construisent une toile en forme de nappe parmi les hautes herbes ou les buissons et, tout comme leur cousine tégénaire, elles se tiennent à l'affût dans une retraite en forme de tube, attendant qu'une proie se pose sur sa toile. Elles surgissent alors rapidement pour la mordre avec leurs chélicères venimeux, puis la portent à l'aide de leurs pédipalpes jusqu'à leur cachette.
 Elles attaquent généralement des proies plus petites qu'elles.
@@ -607,7 +625,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle va tapoter la toile d'une femelle de façon régulière afin de ne pas passer pour une proie. Si celle-ci ne se montre pas agressive, il va pouvoir l'approcher, et l'accouplement aura lieu par l'introduction de sperme depuis les bulbes copulateurs du mâle, situés à l'extrémité de ses pédipalpes, dans l'épigyne de la femelle.
 Parfois, le mâle et la femelle peuvent cohabiter. Le mâle aura cependant de grands risques d'être chassé (il n'est pas rare que la femelle le dévore).
@@ -640,9 +660,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 04/02/2024)[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 04/02/2024) :
 Agelena annulipedella Strand, 1913
 Agelena atlantea Fage, 1938
 Agelena australis Simon, 1897
@@ -687,7 +709,7 @@
 Agelena tenuella Roewer, 1955
 Agelena tenuis Hogg, 1922
 Agelena tungchis Lee, 1998
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Agelena tabida C. L. Koch &amp; Berendt, 1854</t>
         </is>
       </c>
@@ -716,9 +738,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Walckenaer en 1805. Il est placé dans les Agelenidae par C. L. Koch en 1837[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Walckenaer en 1805. Il est placé dans les Agelenidae par C. L. Koch en 1837.
 </t>
         </is>
       </c>
@@ -747,7 +771,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Walckenaer, 1805 : Tableau des aranéides ou caractères essentiels des tribus, genres, familles et races que renferme le genre Aranea de Linné, avec la désignation des espèces comprises dans chacune de ces divisions. Paris, p. 1-88.</t>
         </is>
